--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_8_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_8_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.57000000000009</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>51.93313973661328</v>
+        <v>47.48749788286049</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[45.174096639372685, 58.692182833853884]</t>
+          <t>[39.42585729632835, 55.549138469392624]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="P2" t="n">
         <v>1.540921321580579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4025528763774249, 1.6792897667837332]</t>
+          <t>[1.3648160276856558, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.808769566305</v>
+        <v>52.86215979700135</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.39294501770825, 59.22459411490174]</t>
+          <t>[47.63192753109485, 58.092392062907855]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.03481481481488</v>
+        <v>16.98952952952959</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.53777777777784</v>
+        <v>16.35861861861868</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.53185185185192</v>
+        <v>17.6204404404405</v>
       </c>
     </row>
     <row r="3">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.57000000000009</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -681,25 +681,25 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>52.17054387238851</v>
+        <v>45.80650202319914</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[43.04437871292312, 61.29670903185391]</t>
+          <t>[36.88612207060462, 54.72688197579367]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>1.791899961745003e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>1.791899961745003e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06923720326535</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.8931319093704273, 2.245342497160272]</t>
+          <t>[1.9057108589343503, 2.308237244979887]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>52.19804727472189</v>
+        <v>51.641537680898</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.44020057701163, 56.95589397243216]</t>
+          <t>[46.82658647366479, 56.456488888131204]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.13703703703709</v>
+        <v>14.96160160160165</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5044444444445</v>
+        <v>14.24056056056061</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.76962962962969</v>
+        <v>15.68264264264269</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.57000000000009</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.322098234865734e-13</v>
+        <v>5.10702591327572e-15</v>
       </c>
       <c r="I4" t="n">
-        <v>4.322098234865734e-13</v>
+        <v>5.10702591327572e-15</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>45.64841457241427</v>
+        <v>38.93573059781723</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[33.92260206149237, 57.374227083336166]</t>
+          <t>[29.982394463210667, 47.8890667324238]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.881304332433501e-10</v>
+        <v>2.784705799285803e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>5.881304332433501e-10</v>
+        <v>2.784705799285803e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>2.333395144107734</v>
+        <v>2.52207938756658</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.081816152829272, 2.5849741353861964]</t>
+          <t>[2.295658295415965, 2.7485004797171957]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56.67414798855701</v>
+        <v>49.90611012718713</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.55658519203021, 62.79171078508381]</t>
+          <t>[45.285263074555445, 54.52695717981882]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>14.1881481481482</v>
+        <v>13.4744544544545</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.2844444444445</v>
+        <v>12.66328328328333</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.09185185185191</v>
+        <v>14.28562562562568</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.57000000000009</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,25 +853,25 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>48.83478215349876</v>
+        <v>50.54645910470322</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[40.52984401674086, 57.13972029025667]</t>
+          <t>[41.211000942515405, 59.88191726689103]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>3.219646771412954e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>3.219646771412954e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.773658378845042</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.5975530849501194, 2.949763672739965]</t>
+          <t>[2.647868883205812, 3.0252373701235036]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.62269913865316</v>
+        <v>51.24363000053734</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.96166030206558, 57.28373797524074]</t>
+          <t>[45.82672173999086, 56.660538261083815]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12.60666666666672</v>
+        <v>12.34782782782787</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.97407407407412</v>
+        <v>11.6718518518519</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.23925925925931</v>
+        <v>13.02380380380385</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.57000000000009</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.187938636348917e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>1.187938636348917e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.79981922231219</v>
+        <v>49.60806844949819</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[36.793264190468584, 54.80637425415579]</t>
+          <t>[43.100016139943925, 56.11612075905246]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.444711100224595e-13</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.444711100224595e-13</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.987500521431735</v>
+        <v>-3.031526844905466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.761079429281119, 3.2139216135823507]</t>
+          <t>[-3.16989529010862, -2.893158399702312]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>51.89943731130742</v>
+        <v>50.9057633912772</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.278584935478285, 57.52028968713655]</t>
+          <t>[46.700297487863125, 55.11122929469127]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>11.83851851851857</v>
+        <v>10.86068068068072</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.02518518518523</v>
+        <v>10.364964964965</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.6518518518519</v>
+        <v>11.35639639639644</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.57000000000009</v>
+        <v>22.51000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1025,25 +1025,25 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>45.68923978516855</v>
+        <v>46.59867815397382</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.891714502680465, 54.48676506765663]</t>
+          <t>[37.41029582308299, 55.787060484864654]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.245670233629426e-13</v>
+        <v>2.664535259100376e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.245670233629426e-13</v>
+        <v>2.664535259100376e-13</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.603842559732081</v>
+        <v>-2.591263610168158</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.805105752754851, -2.4025793667093107]</t>
+          <t>[-2.792526803190928, -2.3900004171453877]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>50.97903547130539</v>
+        <v>51.52235779576223</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.29651606325354, 55.66155487935725]</t>
+          <t>[46.79118301853575, 56.25353257298872]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>9.353333333333371</v>
+        <v>9.283403403403437</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.630370370370402</v>
+        <v>8.562362362362391</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.07629629629634</v>
+        <v>10.00444444444448</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="I8" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>53.06307636294271</v>
+        <v>40.63923172720357</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[41.79833216182777, 64.32782056405765]</t>
+          <t>[31.894930934782153, 49.38353251962498]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.631894702176396e-12</v>
+        <v>3.952393967665557e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>2.631894702176396e-12</v>
+        <v>3.952393967665557e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.364842518017542</v>
+        <v>-2.465474114528927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.578684660604235, -2.1510003754308484]</t>
+          <t>[-2.679316257115619, -2.2516319719422344]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.86387676595366</v>
+        <v>52.91474933140149</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.04317764350929, 60.68457588839802]</t>
+          <t>[48.346377475310256, 57.48312118749272]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>8.464704704704733</v>
+        <v>8.789589589589616</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.699279279279303</v>
+        <v>8.027227227227252</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.230130130130163</v>
+        <v>9.551951951951979</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.712274849159257e-13</v>
+        <v>1.076916333886402e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.712274849159257e-13</v>
+        <v>1.076916333886402e-14</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>45.23042339737215</v>
+        <v>44.9022848468385</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[34.63145059529636, 55.82939619944794]</t>
+          <t>[35.24040983342461, 54.5641598602524]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.769806771776075e-11</v>
+        <v>3.956168725949283e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>4.769806771776075e-11</v>
+        <v>3.956168725949283e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.012631930227695</v>
+        <v>-2.037789829355541</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.264210921506157, -1.7610529389492324]</t>
+          <t>[-2.264210921506157, -1.8113687372049245]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>52.12110850505996</v>
+        <v>53.9394749416461</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.32386829627177, 57.91834871384815]</t>
+          <t>[48.71582168927402, 59.16312819401817]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.204004004004027</v>
+        <v>7.264864864864881</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.303503503503522</v>
+        <v>6.45765765765767</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.104504504504531</v>
+        <v>8.072072072072093</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.049116928532385e-14</v>
+        <v>2.120525977034049e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>8.049116928532385e-14</v>
+        <v>2.120525977034049e-14</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>45.01362698739804</v>
+        <v>44.34124310131111</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[35.89949771070785, 54.127756264088234]</t>
+          <t>[36.051141495167954, 52.63134470745426]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.132871988029365e-13</v>
+        <v>4.796163466380676e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>6.132871988029365e-13</v>
+        <v>4.796163466380676e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.408842351159387</v>
+        <v>-1.610105544182156</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.62268449374608, -1.1950002085726936]</t>
+          <t>[-1.7987897876410024, -1.4214213007233099]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>48.27474832617337</v>
+        <v>48.33837295510011</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.71092968917853, 53.838566963168205]</t>
+          <t>[43.10978775055437, 53.56695815964584]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.042802802802822</v>
+        <v>5.740140140140156</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.277377377377391</v>
+        <v>5.067467467467481</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.808228228228252</v>
+        <v>6.41281281281283</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.703393064962256e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.703393064962256e-13</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>47.78007294795057</v>
+        <v>43.75974713979602</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[39.26441924595434, 56.2957266499468]</t>
+          <t>[33.44493519157367, 54.07455908801837]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>5.631894950397509e-11</v>
       </c>
       <c r="O11" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>5.631894950397509e-11</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.182421259008771</v>
+        <v>-1.144684410317002</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3585265529036938, -1.0063159651138474]</t>
+          <t>[-1.3962634015954638, -0.8931054190385392]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>7.441158800247649e-12</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.441158800247649e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>51.06558622420117</v>
+        <v>52.19056211821905</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.39457672839529, 55.736595720007045]</t>
+          <t>[46.5110873196461, 57.870036916791996]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.232352352352365</v>
+        <v>4.080880880880891</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.602002002002012</v>
+        <v>3.18398398398399</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.862702702702717</v>
+        <v>4.977777777777791</v>
       </c>
     </row>
     <row r="12">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1455,39 +1455,39 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>46.88342806283811</v>
+        <v>50.68013465967335</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[37.98528676887327, 55.781569356802954]</t>
+          <t>[40.473072423500774, 60.887196895845925]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>7.838174553853605e-14</v>
+        <v>5.193623309196482e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>7.838174553853605e-14</v>
+        <v>5.193623309196482e-13</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.6415264277600778</v>
+        <v>-0.6918422260157699</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.8302106712189241, -0.4528421843012316]</t>
+          <t>[-0.8931054190385392, -0.49057903299300065]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.713196517982851e-08</v>
+        <v>1.323369414052422e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.713196517982851e-08</v>
+        <v>1.323369414052422e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>47.38893057354018</v>
+        <v>52.45047808389807</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.76319008810446, 52.0146710589759]</t>
+          <t>[47.14462921034393, 57.75632695745221]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>2.296276276276284</v>
+        <v>2.466466466466471</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.620900900900907</v>
+        <v>1.748948948948953</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.971651651651661</v>
+        <v>3.18398398398399</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="I13" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>47.78902907288211</v>
+        <v>50.28801761002323</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[40.443121468042534, 55.13493667772168]</t>
+          <t>[41.21332327125748, 59.362711948788984]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.48769885299771e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.48769885299771e-14</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2264210921506153</v>
+        <v>-0.1006315965113851</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.4025263860455386, -0.0503157982556921]</t>
+          <t>[-0.3144737390980774, 0.11321054607530723]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.01290125079843318</v>
+        <v>0.3482868319509413</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01290125079843318</v>
+        <v>0.3482868319509413</v>
       </c>
       <c r="T13" t="n">
-        <v>50.98292902059718</v>
+        <v>58.11436452429129</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.45934622824348, 55.50651181295087]</t>
+          <t>[52.24419403129664, 63.98453501728594]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8104504504504533</v>
+        <v>0.3587587587587571</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1801001001001011</v>
+        <v>-0.4036036036036064</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.440800800800806</v>
+        <v>1.121121121121121</v>
       </c>
     </row>
     <row r="14">
@@ -1613,53 +1613,53 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.015054789694659e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.015054789694659e-13</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>47.26568059449826</v>
+        <v>42.93045040438788</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[39.28124562178838, 55.250115567208134]</t>
+          <t>[33.16394361741014, 52.69695719136561]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>2.043631930348511e-11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>2.043631930348511e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2452895164964994</v>
+        <v>0.2830263651882703</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.05660527303765317, 0.4339737599553457]</t>
+          <t>[0.01886842434588587, 0.5471843060306547]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.01199627449210583</v>
+        <v>0.0363044836063966</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01199627449210583</v>
+        <v>0.0363044836063966</v>
       </c>
       <c r="T14" t="n">
-        <v>52.38610071097258</v>
+        <v>53.76429199794611</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[47.56032290074483, 57.21187852120034]</t>
+          <t>[48.07005328790434, 59.45853070798788]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21.61201201201209</v>
+        <v>21.39099099099105</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.93663663663671</v>
+        <v>20.44924924924931</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.28738738738747</v>
+        <v>22.33273273273279</v>
       </c>
     </row>
     <row r="15">
@@ -1699,53 +1699,53 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.49000000000008</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.930988785010413e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I15" t="n">
-        <v>2.930988785010413e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>46.22314197543411</v>
+        <v>49.16599020767087</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[35.05130275686956, 57.39498119399866]</t>
+          <t>[40.816654784691735, 57.51532563065]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.133857452373377e-10</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.133857452373377e-10</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.5597632555945786</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 0.7610264486173479]</t>
+          <t>[0.38365796169965627, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0004474660499858008</v>
+        <v>7.887318398402954e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0004474660499858008</v>
+        <v>7.887318398402954e-08</v>
       </c>
       <c r="T15" t="n">
-        <v>51.58350143573403</v>
+        <v>50.68690935667668</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[45.446779709780884, 57.72022316168717]</t>
+          <t>[46.13626127611355, 55.23755743723981]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>20.71151151151158</v>
+        <v>20.40440440440446</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.76598598598605</v>
+        <v>19.77657657657663</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.65703703703711</v>
+        <v>21.03223223223229</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_8_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_8_sine_10_.xlsx
@@ -581,39 +581,43 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.51000000000008</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.887379141862766e-15</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1897426937298767</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1897426937298767</v>
+      </c>
       <c r="L2" t="n">
-        <v>47.48749788286049</v>
+        <v>51.06641690803496</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.42585729632835, 55.549138469392624]</t>
+          <t>[43.710192135464254, 58.422641680605665]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1.540921321580579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3648160276856558, 1.7170266154755023]</t>
+          <t>[1.3899739268135018, 1.6918687163476562]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +627,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.86215979700135</v>
+        <v>50.65874122828017</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.63192753109485, 58.092392062907855]</t>
+          <t>[45.78123130108844, 55.5362511554719]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.98952952952959</v>
+        <v>16.98198198198204</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.35861861861868</v>
+        <v>16.4414414414415</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.6204404404405</v>
+        <v>17.52252252252259</v>
       </c>
     </row>
     <row r="3">
@@ -667,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.51000000000008</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -678,28 +682,32 @@
       <c r="I3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.37046121361641</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.37046121361641</v>
+      </c>
       <c r="L3" t="n">
-        <v>45.80650202319914</v>
+        <v>50.28901734193717</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.88612207060462, 54.72688197579367]</t>
+          <t>[42.0646528732067, 58.51338181066765]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.791899961745003e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.791899961745003e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.106974051957119</v>
+        <v>1.943447707626118</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.9057108589343503, 2.308237244979887]</t>
+          <t>[1.7799213632951165, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +717,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>51.641537680898</v>
+        <v>50.27267455736266</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.82658647366479, 56.456488888131204]</t>
+          <t>[45.80410664440757, 54.741242470317744]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.96160160160165</v>
+        <v>15.5405405405406</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.24056056056061</v>
+        <v>14.95495495495501</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.68264264264269</v>
+        <v>16.12612612612619</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +761,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.51000000000008</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>6.439293542825908e-15</v>
       </c>
       <c r="I4" t="n">
-        <v>5.10702591327572e-15</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>6.439293542825908e-15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04420057857975612</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04420057857975612</v>
+      </c>
       <c r="L4" t="n">
-        <v>38.93573059781723</v>
+        <v>50.37783235896942</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[29.982394463210667, 47.8890667324238]</t>
+          <t>[38.662693393133985, 62.09297132480486]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.784705799285803e-11</v>
+        <v>3.837685724761286e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>2.784705799285803e-11</v>
+        <v>3.837685724761286e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52207938756658</v>
+        <v>2.459184639746965</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.295658295415965, 2.7485004797171957]</t>
+          <t>[2.2327635475963485, 2.685605731897581]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +807,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>49.90611012718713</v>
+        <v>51.43115422394939</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.285263074555445, 54.52695717981882]</t>
+          <t>[45.432410478454734, 57.42989796944405]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.4744544544545</v>
+        <v>13.69369369369374</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.66328328328333</v>
+        <v>12.88288288288293</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.28562562562568</v>
+        <v>14.50450450450456</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.51000000000008</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -850,28 +862,32 @@
       <c r="I5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.2869473143809654</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2869473143809654</v>
+      </c>
       <c r="L5" t="n">
-        <v>50.54645910470322</v>
+        <v>50.61569038934767</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[41.211000942515405, 59.88191726689103]</t>
+          <t>[41.32249104773221, 59.90888973096313]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.219646771412954e-14</v>
+        <v>2.642330798607873e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>3.219646771412954e-14</v>
+        <v>2.642330798607873e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.836553126664658</v>
+        <v>2.748500479717197</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.647868883205812, 3.0252373701235036]</t>
+          <t>[2.547237286694427, 2.9497636727399663]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +897,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>51.24363000053734</v>
+        <v>49.75204309395566</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.82672173999086, 56.660538261083815]</t>
+          <t>[44.37645181959207, 55.12763436831924]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12.34782782782787</v>
+        <v>12.6576576576577</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.6718518518519</v>
+        <v>11.93693693693698</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.02380380380385</v>
+        <v>13.37837837837843</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +941,43 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.51000000000008</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>7.771561172376096e-16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2550375716982283</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2550375716982283</v>
+      </c>
       <c r="L6" t="n">
-        <v>49.60806844949819</v>
+        <v>42.48044306387876</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[43.100016139943925, 56.11612075905246]</t>
+          <t>[34.78230673173446, 50.17857939602306]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.031526844905466</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.16989529010862, -2.893158399702312]</t>
+          <t>[-3.207632138800389, -2.8051057527548506]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +987,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.9057633912772</v>
+        <v>52.20857404709444</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.700297487863125, 55.11122929469127]</t>
+          <t>[47.40001526311746, 57.017132831071415]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.86068068068072</v>
+        <v>10.7657657657658</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.364964964965</v>
+        <v>10.04504504504508</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.35639639639644</v>
+        <v>11.48648648648653</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.51000000000008</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1022,28 +1042,32 @@
       <c r="I7" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.4332868030409001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4332868030409001</v>
+      </c>
       <c r="L7" t="n">
-        <v>46.59867815397382</v>
+        <v>44.05747555301886</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[37.41029582308299, 55.787060484864654]</t>
+          <t>[35.60793545807449, 52.50701564796323]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.664535259100376e-13</v>
+        <v>1.096900348329655e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>2.664535259100376e-13</v>
+        <v>1.096900348329655e-13</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.591263610168158</v>
+        <v>-2.679316257115619</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.792526803190928, -2.3900004171453877]</t>
+          <t>[-2.893158399702312, -2.465474114528927]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1077,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>51.52235779576223</v>
+        <v>48.56277003333204</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.79118301853575, 56.25353257298872]</t>
+          <t>[44.02196181849367, 53.103578248170415]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>9.283403403403437</v>
+        <v>9.59459459459463</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.562362362362391</v>
+        <v>8.828828828828863</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.00444444444448</v>
+        <v>10.3603603603604</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1121,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.850741782050136e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.850741782050136e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>40.63923172720357</v>
+        <v>44.02121936263713</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[31.894930934782153, 49.38353251962498]</t>
+          <t>[32.85616567921943, 55.186273046054836]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.952393967665557e-12</v>
+        <v>4.199185443809483e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>3.952393967665557e-12</v>
+        <v>4.199185443809483e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.465474114528927</v>
+        <v>-2.364842518017542</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.679316257115619, -2.2516319719422344]</t>
+          <t>[-2.616421509296002, -2.113263526739081]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1163,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>52.91474933140149</v>
+        <v>51.23699470731673</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.346377475310256, 57.48312118749272]</t>
+          <t>[45.56410745274147, 56.909881961892]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>8.789589589589616</v>
+        <v>8.460940940940967</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.027227227227252</v>
+        <v>7.560840840840869</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.551951951951979</v>
+        <v>9.361041041041066</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1207,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.076916333886402e-14</v>
+        <v>2.109423746787797e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>1.076916333886402e-14</v>
+        <v>2.109423746787797e-15</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>44.9022848468385</v>
+        <v>47.58268675403409</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[35.24040983342461, 54.5641598602524]</t>
+          <t>[37.692851670121975, 57.472521837946196]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.956168725949283e-12</v>
+        <v>1.379785175004145e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>3.956168725949283e-12</v>
+        <v>1.379785175004145e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.037789829355541</v>
+        <v>-2.062947728483388</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.264210921506157, -1.8113687372049245]</t>
+          <t>[-2.2893688206340035, -1.836526636332772]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1249,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>53.9394749416461</v>
+        <v>50.36451507159129</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.71582168927402, 59.16312819401817]</t>
+          <t>[45.06913912014139, 55.6598910230412]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.264864864864881</v>
+        <v>7.380820820820844</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.45765765765767</v>
+        <v>6.570730730730751</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.072072072072093</v>
+        <v>8.190910910910937</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1293,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.120525977034049e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>2.120525977034049e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>44.34124310131111</v>
+        <v>52.56833783613048</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[36.051141495167954, 52.63134470745426]</t>
+          <t>[46.41281654798897, 58.723859124271996]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.796163466380676e-14</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>4.796163466380676e-14</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.610105544182156</v>
+        <v>-1.484316048542926</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, -1.4214213007233099]</t>
+          <t>[-1.610105544182158, -1.3585265529036938]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1335,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>48.33837295510011</v>
+        <v>48.85454654539812</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.10978775055437, 53.56695815964584]</t>
+          <t>[45.00783587227473, 52.70125721852151]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.740140140140156</v>
+        <v>5.310590590590611</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.067467467467481</v>
+        <v>4.860540540540555</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.41281281281283</v>
+        <v>5.760640640640666</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1379,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.703393064962256e-13</v>
+        <v>2.55351295663786e-15</v>
       </c>
       <c r="I11" t="n">
-        <v>2.703393064962256e-13</v>
+        <v>2.55351295663786e-15</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>43.75974713979602</v>
+        <v>46.3667464520594</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[33.44493519157367, 54.07455908801837]</t>
+          <t>[36.505508016833225, 56.22798488728558]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.631894950397509e-11</v>
+        <v>2.782218899710642e-12</v>
       </c>
       <c r="O11" t="n">
-        <v>5.631894950397509e-11</v>
+        <v>2.782218899710642e-12</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.144684410317002</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3962634015954638, -0.8931054190385392]</t>
+          <t>[-1.3333686537758478, -0.8805264694746171]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>7.441158800247649e-12</v>
+        <v>8.417710972707937e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>7.441158800247649e-12</v>
+        <v>8.417710972707937e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>52.19056211821905</v>
+        <v>52.14743647363564</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.5110873196461, 57.870036916791996]</t>
+          <t>[46.89221708522072, 57.40265586205055]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.080880880880891</v>
+        <v>3.960440440440454</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.18398398398399</v>
+        <v>3.150350350350362</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.977777777777791</v>
+        <v>4.770530530530546</v>
       </c>
     </row>
     <row r="12">
@@ -1441,53 +1465,53 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="I12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>50.68013465967335</v>
+        <v>45.75851812097999</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[40.473072423500774, 60.887196895845925]</t>
+          <t>[36.14651340498917, 55.370522836970814]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.193623309196482e-13</v>
+        <v>1.908695423935569e-12</v>
       </c>
       <c r="O12" t="n">
-        <v>5.193623309196482e-13</v>
+        <v>1.908695423935569e-12</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.6918422260157699</v>
+        <v>-0.5786316799404627</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.8931054190385392, -0.49057903299300065]</t>
+          <t>[-0.8050527720910781, -0.3522105877898474]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.323369414052422e-08</v>
+        <v>5.627125835294677e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>1.323369414052422e-08</v>
+        <v>5.627125835294677e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>52.45047808389807</v>
+        <v>48.87678355109335</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[47.14462921034393, 57.75632695745221]</t>
+          <t>[43.70490853522204, 54.048658566964654]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>2.466466466466471</v>
+        <v>2.070230230230237</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.748948948948953</v>
+        <v>1.260140140140146</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.18398398398399</v>
+        <v>2.880320320320329</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1551,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.232347557333924e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.232347557333924e-13</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>50.28801761002323</v>
+        <v>45.05568947374354</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[41.21332327125748, 59.362711948788984]</t>
+          <t>[35.52902438458804, 54.58235456289904]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>2.330802217898054e-12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>2.330802217898054e-12</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1006315965113851</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 0.11321054607530723]</t>
+          <t>[-0.4151053356094625, 0.06289474781961601]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.3482868319509413</v>
+        <v>0.1447599590504678</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3482868319509413</v>
+        <v>0.1447599590504678</v>
       </c>
       <c r="T13" t="n">
-        <v>58.11436452429129</v>
+        <v>53.79202770227937</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[52.24419403129664, 63.98453501728594]</t>
+          <t>[47.85065860060882, 59.73339680394992]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3587587587587571</v>
+        <v>0.6300700700700723</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.4036036036036064</v>
+        <v>-0.2250250250250272</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.121121121121121</v>
+        <v>1.485165165165172</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,53 +1637,53 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.015054789694659e-13</v>
+        <v>2.953193245502916e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>2.015054789694659e-13</v>
+        <v>2.953193245502916e-14</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>42.93045040438788</v>
+        <v>43.62855765329149</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[33.16394361741014, 52.69695719136561]</t>
+          <t>[35.229333804532175, 52.027781502050814]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.043631930348511e-11</v>
+        <v>1.239008895481675e-13</v>
       </c>
       <c r="O14" t="n">
-        <v>2.043631930348511e-11</v>
+        <v>1.239008895481675e-13</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2830263651882703</v>
+        <v>0.09434212172942313</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.01886842434588587, 0.5471843060306547]</t>
+          <t>[-0.11950002085726918, 0.30818426431611545]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0363044836063966</v>
+        <v>0.3789568082347345</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0363044836063966</v>
+        <v>0.3789568082347345</v>
       </c>
       <c r="T14" t="n">
-        <v>53.76429199794611</v>
+        <v>46.75118010936851</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.07005328790434, 59.45853070798788]</t>
+          <t>[41.25851400259809, 52.24384621613892]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21.39099099099105</v>
+        <v>22.14246246246254</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.44924924924931</v>
+        <v>21.37737737737745</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.33273273273279</v>
+        <v>22.90754754754762</v>
       </c>
     </row>
     <row r="15">
@@ -1699,53 +1723,53 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.40000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="I15" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.771561172376096e-16</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>49.16599020767087</v>
+        <v>51.83057782299655</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[40.816654784691735, 57.51532563065]</t>
+          <t>[41.20887473004231, 62.45228091595078]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>8.923972671937008e-13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>8.923972671937008e-13</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5597632555945786</v>
+        <v>0.5849211547224229</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.38365796169965627, 0.735868549489501]</t>
+          <t>[0.35850006257180667, 0.8113422468730391]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>7.887318398402954e-08</v>
+        <v>4.664496336070911e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>7.887318398402954e-08</v>
+        <v>4.664496336070911e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>50.68690935667668</v>
+        <v>52.53365969133579</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[46.13626127611355, 55.23755743723981]</t>
+          <t>[46.78508879112055, 58.282230591551034]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>20.40440440440446</v>
+        <v>20.38726726726734</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.77657657657663</v>
+        <v>19.57717717717724</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.03223223223229</v>
+        <v>21.19735735735744</v>
       </c>
     </row>
   </sheetData>
